--- a/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-wikidata-dbpedia/zero_shot_mistral_dbpedia_results_analysis.xlsx
+++ b/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-wikidata-dbpedia/zero_shot_mistral_dbpedia_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\zero-shot-entity-aligned\zero-shot-entity-aligned-wikidata-dbpedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D0D2E-D455-4BC5-965F-B0575FFF83A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A1961F-16F0-481F-A865-6341B2D2F8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="431">
   <si>
     <t>Question</t>
   </si>
@@ -349,306 +349,6 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>SELECT ?o1 WHERE {   &lt;http://dbpedia.org/resource/Penguin_Books&gt; &lt;http://dbpedia.org/ontology/founder&gt; ?o1 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:musicBy dbr:Elton_John .   ?uri a dbo:Musical . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE {   dbr:Skype dbo:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri a dbo:SoccerClub ;        dbo:league res:Bundesliga . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?actor WHERE {   ?movie dbo:director dbr:William_Shatner ;          dbo:starring ?actor . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE {   ?uri a dbo:Mountain ;        dbp:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE {   ?uri dbo:starring dbr:Leonardo_DiCaprio . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?date WHERE {   dbr:Olof_Palme dbo:deathDate ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri dbo:starring dbr:Elizabeth_Taylor .   ?uri dbo:starring dbr:Richard_Burton . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   dbr:Minecraft dbo:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?val WHERE {   &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?label WHERE {   ?album dbo:artist dbr:Elvis_Presley .   ?album dbo:releaseDate ?date .   ?album dbo:recordLabel ?label . } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?val WHERE {   dbr:Toy_Story dbo:runtime ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri dbo:occupation dbr:Bandleader ;        dbo:instrument dbr:Trumpet . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE {   ?uri rdf:type &lt;http://dbpedia.org/ontology/Film&gt; .   ?uri &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; .   ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?year WHERE {   dbr:Rachel_Stevens dbo:birthYear ?year . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?cause WHERE {   ?s dbo:deathCause ?cause . } GROUP BY ?cause ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?height WHERE {   dbr:Yokohama_Marine_Tower dbo:height ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:Mountain dbr:Mountain ;        dbo:locatedInArea dbr:Italy ;        dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE {   &lt;http://dbpedia.org/resource/Albert_Einstein&gt; &lt;http://dbpedia.org/ontology/doctoralAdvisor&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?business WHERE {   dbr:Donald_Trump dbo:owner ?business .   MINUS { ?business dbo:owner ?closed } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?spouse WHERE {   dbr:Tom_Cruise dbo:spouse ?spouse . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE {   dbr:Eurasia dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?author WHERE {   dbr:The_Interpretation_of_Dreams dbo:author ?author . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE {   dbpedia:John_Adams dbo:birthDate ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?populationTotal WHERE {   dbr:European_Union dbo:populationTotal ?populationTotal . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?o1 WHERE {   &lt;http://dbpedia.org/resource/China&gt; dbo:currency ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?deathDate WHERE {   dbr:William_Shakespeare dbo:deathDate ?deathDate . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri dbo:launchSite dbr:Baikonur_Cosmodrome .   ?uri rdf:type dbo:Rocket . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:Island dbr:Japan . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   res:World_of_Warcraft dbo:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri a dbo:Company ;        dbo:industry dbr:Advertising . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   dbr:Angela_Merkel dbo:almaMater ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE {   ?uri a dbo:TelevisionShow .   ?uri dbo:starring dbr:Neil_Patrick_Harris . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:starring dbr:Tom_Cruise. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P17 ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   dbr:John_F._Kennedy dbo:deathPlace ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE {   &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:Swimmer dbr:Swimmer ;         dbo:birthPlace dbr:Moscow . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?movie WHERE {   ?movie a dbo:Film .   ?movie dbo:starring dbr:Alec_Guinness .   ?movie dbo:releaseDate ?releaseDate . } ORDER BY DESC(?releaseDate) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?res ?elevation WHERE {   ?res a dbo:Mountain .   ?res dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE {   res:Cairo dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE {   ?uri dbo:birthPlace dbr:Heraklion . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?child) as ?c) WHERE {   dbr:Benjamin_Franklin dbo:child ?child . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?elevation WHERE {   res:D%C3%BCsseldorf_Airport dbo:elevation ?elevation . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE {   dbr:Mecca dbo:country ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE {   dbr:Claudia_Schiffer dbo:height ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   res:The_Pillars_of_the_Earth dbo:author ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q189080&gt; &lt;http://www.wikidata.org/prop/direct/P136&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   dbr:Frank_Sinatra dbo:birthPlace ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:creator dbr:Walt_Disney .   ?uri a dbo:TelevisionShow . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE {   ?uri dbo:country dbr:Sweden .   ?uri a dbo:Holiday . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?netIncome WHERE {   res:Apple_Inc. dbo:netIncome ?netIncome . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   dbr:Abraham_Lincoln dbo:deathPlace ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?capital WHERE {   dbr:Himalayas dbo:country ?country .   ?country dbo:capital ?capital . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE {   &lt;http://dbpedia.org/resource/Limerick_Lake&gt; &lt;http://dbpedia.org/ontology/country&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?val WHERE {   dbr:Michael_Jordan dbo:height ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?film WHERE {   ?film dbo:director dbr:Clint_Eastwood ;         dbo:starring dbr:Clint_Eastwood . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE {   ?country dbpedia-owl:currency dbpedia:West_African_CFA_franc . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE {   dbp:Iraq dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE {   ?uri rdf:type dbo:Holiday . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri a dbo:PoliticalParty ;        dbo:country dbr:Greece ;        dbo:ideology dbr:Pro-Europeanism . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE {   &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt;/&lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   dbr:The_Three_Dancers dbo:author ?painter .   ?painter dbo:movement ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://dbpedia.org/ontology/Actor&gt; &lt;http://dbpedia.org/ontology/Actor&gt; .   { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Germany&gt; . }   UNION   { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt;/&lt;http://dbpedia.org/ontology/country&gt; &lt;http://dbpedia.org/resource/Germany&gt; . } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   dbr:Brooklyn_Bridge dbo:architect ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE {   &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:director dbr:Francis_Ford_Coppola . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE {   dbr:Adele dbo:birthName ?name. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns   ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; .   ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?currency WHERE {   &lt;http://dbpedia.org/resource/Czech_Republic&gt; &lt;http://dbpedia.org/ontology/currency&gt; ?currency . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?uri WHERE {   {     ?uri dbo:birthPlace/dbo:location dbr:Vienna .     ?uri dbo:deathPlace dbr:Berlin .   } UNION {     ?uri dbo:birthPlace dbr:Vienna .     ?uri dbo:deathPlace/dbo:location dbr:Berlin .   } UNION {     ?uri dbo:birthPlace/dbo:location dbr:Vienna .     ?uri dbo:deathPlace/dbo:location dbr:Berlin .   } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:crosses dbr:Seine .   ?uri a dbo:Bridge . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri dbo:occupation dbr:Musician .   ?book dbo:author ?uri ;         a dbo:Book . } GROUP BY ?uri ORDER BY DESC(COUNT(?book)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns   ?uri &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?uri WHERE {   ?uri a dbo:Writer .   ?uri dbo:award dbr:Nobel_Prize_in_Literature . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE {   &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?res WHERE {   ?res dbo:occupation dbr:Bandleader .   ?res dbo:instrument dbr:Trumpet . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE {   ?uri rdf:type dbo:BasketballPlayer .   ?uri dbo:height ?height .   FILTER(?height &gt; 2.0) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri a dbo:Film .   ?uri dbo:starring dbr:Julia_Roberts .   ?uri dbo:starring dbr:Richard_Gere . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?o1 WHERE {   &lt;http://dbpedia.org/resource/Canada&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri a dbo:SoccerPlayer ;        dbo:birthPlace dbr:Malta . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q1009&gt; &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri}</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE {   ?sub a dbo:ProgrammingLanguage . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri dbo:Astronaut ?occupation .   { ?uri dbo:nationality dbr:Soviet_Union }   UNION   { ?uri dbo:nationality dbr:Russia } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   dbr:Family_Guy dbo:creator ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?population WHERE {   dbr:Mexico_City dbo:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   dbr:Batman dbo:creator ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?number WHERE {   &lt;http://dbpedia.org/resource/Australia&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?uri .   ?uri &lt;http://dbpedia.org/ontology/populationTotal&gt; ?number . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE {   dbr:North_Rhine-Westphalia dbo:areaTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?employees WHERE {   res:IBM dbo:numberOfEmployees ?employees . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?value WHERE {   dbr:Pulp_Fiction dbo:budget ?value . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri a dbo:Film ;        dbo:country dbr:Denmark . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   dbr:Himalayas dbo:country ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:type dbo:Country .   ?uri dbo:areaTotal ?area . } ORDER BY DESC(?area) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?almaMater WHERE {   dbr:Angela_Merkel dbo:almaMater ?almaMater . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE {   &lt;http://dbpedia.org/resource/Goofy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri . }</t>
-  </si>
-  <si>
     <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
   </si>
   <si>
@@ -1277,59 +977,1002 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Missing rdf:type</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Unadapted Dataset Patterns</t>
+  </si>
+  <si>
+    <t>Ontology treated as Resource</t>
+  </si>
+  <si>
+    <t>Wrong Ontology</t>
+  </si>
+  <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Wrong Resource</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?o1 WHERE {   &lt;http://dbpedia.org/resource/Penguin_Books&gt; &lt;http://dbpedia.org/ontology/founder&gt; ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:musicBy dbr:Elton_John .   ?uri a dbo:Musical . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE {   dbr:Skype dbo:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri a dbo:SoccerClub ;        dbo:league res:Bundesliga . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?actor WHERE {   ?movie dbo:director dbr:William_Shatner ;          dbo:starring ?actor . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE {   ?uri a dbo:Mountain ;        dbp:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE {   ?uri dbo:starring dbr:Leonardo_DiCaprio . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?date WHERE {   dbr:Olof_Palme dbo:deathDate ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri dbo:starring dbr:Elizabeth_Taylor .   ?uri dbo:starring dbr:Richard_Burton . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   dbr:Minecraft dbo:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?val WHERE {   &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?label WHERE {   ?album dbo:artist dbr:Elvis_Presley .   ?album dbo:releaseDate ?date .   ?album dbo:recordLabel ?label . } ORDER BY ?date LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?val WHERE {   dbr:Toy_Story dbo:runtime ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri dbo:occupation dbr:Bandleader ;        dbo:instrument dbr:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE {   ?uri rdf:type &lt;http://dbpedia.org/ontology/Film&gt; .   ?uri &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; .   ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?year WHERE {   dbr:Rachel_Stevens dbo:birthYear ?year . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?cause WHERE {   ?s dbo:deathCause ?cause . } GROUP BY ?cause ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?height WHERE {   dbr:Yokohama_Marine_Tower dbo:height ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:Mountain dbr:Mountain ;        dbo:locatedInArea dbr:Italy ;        dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE {   &lt;http://dbpedia.org/resource/Albert_Einstein&gt; &lt;http://dbpedia.org/ontology/doctoralAdvisor&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?business WHERE {   dbr:Donald_Trump dbo:owner ?business .   MINUS { ?business dbo:owner ?closed } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?spouse WHERE {   dbr:Tom_Cruise dbo:spouse ?spouse . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE {   dbr:Eurasia dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?author WHERE {   dbr:The_Interpretation_of_Dreams dbo:author ?author . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE {   dbpedia:John_Adams dbo:birthDate ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?populationTotal WHERE {   dbr:European_Union dbo:populationTotal ?populationTotal . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?o1 WHERE {   &lt;http://dbpedia.org/resource/China&gt; dbo:currency ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?deathDate WHERE {   dbr:William_Shakespeare dbo:deathDate ?deathDate . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri dbo:launchSite dbr:Baikonur_Cosmodrome .   ?uri rdf:type dbo:Rocket . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:Island dbr:Japan . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   res:World_of_Warcraft dbo:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri a dbo:Company ;        dbo:industry dbr:Advertising . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   dbr:Angela_Merkel dbo:almaMater ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE {   ?uri a dbo:TelevisionShow .   ?uri dbo:starring dbr:Neil_Patrick_Harris . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:starring dbr:Tom_Cruise. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P17 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   dbr:John_F._Kennedy dbo:deathPlace ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE {   &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:Swimmer dbr:Swimmer ;         dbo:birthPlace dbr:Moscow . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?movie WHERE {   ?movie a dbo:Film .   ?movie dbo:starring dbr:Alec_Guinness .   ?movie dbo:releaseDate ?releaseDate . } ORDER BY DESC(?releaseDate) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?res ?elevation WHERE {   ?res a dbo:Mountain .   ?res dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE {   res:Cairo dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE {   ?uri dbo:birthPlace dbr:Heraklion . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?child) as ?c) WHERE {   dbr:Benjamin_Franklin dbo:child ?child . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?elevation WHERE {   res:D%C3%BCsseldorf_Airport dbo:elevation ?elevation . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE {   dbr:Mecca dbo:country ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE {   dbr:Claudia_Schiffer dbo:height ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   res:The_Pillars_of_the_Earth dbo:author ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q189080&gt; &lt;http://www.wikidata.org/prop/direct/P136&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   dbr:Frank_Sinatra dbo:birthPlace ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:creator dbr:Walt_Disney .   ?uri a dbo:TelevisionShow . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE {   ?uri dbo:country dbr:Sweden .   ?uri a dbo:Holiday . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?netIncome WHERE {   res:Apple_Inc. dbo:netIncome ?netIncome . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?uri WHERE {   ?uri rdf:type &lt;http://dbpedia.org/ontology/Film&gt; .   ?uri &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; .   ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . }",\n        "startIndex": 36,\n        "stopIndex": 43\n    },\n    "query": "SELECT DISTINCT ?uri WHERE {   ?uri rdf:type &lt;http://dbpedia.org/ontology/Film&gt; .   ?uri &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; .   ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 136,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?netIncome WHERE {   res:Apple_Inc. dbo:netIncome ?netIncome . }",\n        "startIndex": 470,\n        "stopIndex": 470\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?netIncome WHERE {   res:Apple_Inc. dbo:netIncome ?netIncome . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   dbr:Abraham_Lincoln dbo:deathPlace ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?capital WHERE {   dbr:Himalayas dbo:country ?country .   ?country dbo:capital ?capital . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE {   &lt;http://dbpedia.org/resource/Limerick_Lake&gt; &lt;http://dbpedia.org/ontology/country&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?val WHERE {   dbr:Michael_Jordan dbo:height ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?film WHERE {   ?film dbo:director dbr:Clint_Eastwood ;         dbo:starring dbr:Clint_Eastwood . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE {   ?country dbpedia-owl:currency dbpedia:West_African_CFA_franc . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE {   dbp:Iraq dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE {   ?uri rdf:type dbo:Holiday . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri a dbo:PoliticalParty ;        dbo:country dbr:Greece ;        dbo:ideology dbr:Pro-Europeanism . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?date WHERE {   &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt;/&lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   dbr:The_Three_Dancers dbo:author ?painter .   ?painter dbo:movement ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://dbpedia.org/ontology/Actor&gt; &lt;http://dbpedia.org/ontology/Actor&gt; .   { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Germany&gt; . }   UNION   { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt;/&lt;http://dbpedia.org/ontology/country&gt; &lt;http://dbpedia.org/resource/Germany&gt; . } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   dbr:Brooklyn_Bridge dbo:architect ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE {   &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:director dbr:Francis_Ford_Coppola . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE {   dbr:Adele dbo:birthName ?name. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns   ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; .   ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . } ORDER BY ?date LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 214,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri dbo:launchSite dbr:Baikonur_Cosmodrome .   ?uri rdf:type dbo:Rocket . }",\n        "startIndex": 214,\n        "stopIndex": 221\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri dbo:launchSite dbr:Baikonur_Cosmodrome .   ?uri rdf:type dbo:Rocket . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": extraneous input \'&lt;\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 36,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE {   ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns   ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; .   ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . } ORDER BY ?date LIMIT 1",\n        "startIndex": 413,\n        "stopIndex": 413\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE {   ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns   ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; .   ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . } ORDER BY ?date LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?currency WHERE {   &lt;http://dbpedia.org/resource/Czech_Republic&gt; &lt;http://dbpedia.org/ontology/currency&gt; ?currency . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?uri WHERE {   {     ?uri dbo:birthPlace/dbo:location dbr:Vienna .     ?uri dbo:deathPlace dbr:Berlin .   } UNION {     ?uri dbo:birthPlace dbr:Vienna .     ?uri dbo:deathPlace/dbo:location dbr:Berlin .   } UNION {     ?uri dbo:birthPlace/dbo:location dbr:Vienna .     ?uri dbo:deathPlace/dbo:location dbr:Berlin .   } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:crosses dbr:Seine .   ?uri a dbo:Bridge . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri dbo:occupation dbr:Musician .   ?book dbo:author ?uri ;         a dbo:Book . } GROUP BY ?uri ORDER BY DESC(COUNT(?book)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns   ?uri &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 136,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?netIncome WHERE {   res:Apple_Inc. dbo:netIncome ?netIncome . }",\n        "startIndex": 136,\n        "stopIndex": 136\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?netIncome WHERE {   res:Apple_Inc. dbo:netIncome ?netIncome . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 79,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE {   ?uri rdf:type dbo:Holiday . }",\n        "startIndex": 79,\n        "stopIndex": 86\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE {   ?uri rdf:type dbo:Holiday . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": extraneous input \'&lt;\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns   ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; .   ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . } ORDER BY ?date LIMIT 1",\n        "startIndex": 36,\n        "stopIndex": 36\n    },\n    "query": "SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns   ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; .   ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . } ORDER BY ?date LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": extraneous input \'&lt;\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns   ?uri &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . }",\n        "startIndex": 36,\n        "stopIndex": 36\n    },\n    "query": "SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns   ?uri &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 79,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE {   ?uri rdf:type dbo:BasketballPlayer .   ?uri dbo:height ?height .   FILTER(?height &gt; 2.0) }",\n        "startIndex": 79,\n        "stopIndex": 86\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE {   ?uri rdf:type dbo:BasketballPlayer .   ?uri dbo:height ?height .   FILTER(?height &gt; 2.0) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>Missing rdf:type</t>
-  </si>
-  <si>
-    <t>Query Bad Formed</t>
-  </si>
-  <si>
-    <t>Structural Error</t>
-  </si>
-  <si>
-    <t>Unadapted Dataset Patterns</t>
-  </si>
-  <si>
-    <t>Ontology treated as Resource</t>
-  </si>
-  <si>
-    <t>Wrong Ontology</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": extraneous input \'&lt;\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 36,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE {   ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns   ?uri &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . }",\n        "startIndex": 413,\n        "stopIndex": 413\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE {   ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns   ?uri &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?uri WHERE {   ?uri a dbo:Writer .   ?uri dbo:award dbr:Nobel_Prize_in_Literature . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE {   &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?res WHERE {   ?res dbo:occupation dbr:Bandleader .   ?res dbo:instrument dbr:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE {   ?uri rdf:type dbo:BasketballPlayer .   ?uri dbo:height ?height .   FILTER(?height &gt; 2.0) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri a dbo:Film .   ?uri dbo:starring dbr:Julia_Roberts .   ?uri dbo:starring dbr:Richard_Gere . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?o1 WHERE {   &lt;http://dbpedia.org/resource/Canada&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri a dbo:SoccerPlayer ;        dbo:birthPlace dbr:Malta . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q1009&gt; &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE {   ?sub a dbo:ProgrammingLanguage . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri dbo:Astronaut ?occupation .   { ?uri dbo:nationality dbr:Soviet_Union }   UNION   { ?uri dbo:nationality dbr:Russia } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   dbr:Family_Guy dbo:creator ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?population WHERE {   dbr:Mexico_City dbo:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE {   dbr:Batman dbo:creator ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?number WHERE {   &lt;http://dbpedia.org/resource/Australia&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?uri .   ?uri &lt;http://dbpedia.org/ontology/populationTotal&gt; ?number . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE {   dbr:North_Rhine-Westphalia dbo:areaTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?employees WHERE {   res:IBM dbo:numberOfEmployees ?employees . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?value WHERE {   dbr:Pulp_Fiction dbo:budget ?value . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE {   ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   ?uri a dbo:Film ;        dbo:country dbr:Denmark . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?uri WHERE {   dbr:Himalayas dbo:country ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE {   ?uri dbo:type dbo:Country .   ?uri dbo:areaTotal ?area . } ORDER BY DESC(?area) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?almaMater WHERE {   dbr:Angela_Merkel dbo:almaMater ?almaMater . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE {   &lt;http://dbpedia.org/resource/Goofy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri . }</t>
   </si>
 </sst>
 </file>
@@ -1697,13 +2340,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,25 +2371,34 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1755,24 +2407,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>209</v>
       </c>
-      <c r="D3" t="s">
-        <v>309</v>
-      </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1781,24 +2433,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
-        <v>310</v>
-      </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -1807,24 +2459,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>211</v>
       </c>
-      <c r="D5" t="s">
-        <v>311</v>
-      </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1833,24 +2485,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>212</v>
       </c>
-      <c r="D6" t="s">
-        <v>312</v>
-      </c>
       <c r="E6" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -1859,24 +2511,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>213</v>
       </c>
-      <c r="D7" t="s">
-        <v>313</v>
-      </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1885,50 +2537,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>214</v>
       </c>
-      <c r="D8" t="s">
-        <v>314</v>
-      </c>
       <c r="E8" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="F8" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>215</v>
       </c>
-      <c r="D9" t="s">
-        <v>315</v>
-      </c>
       <c r="E9" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1937,24 +2592,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>216</v>
       </c>
-      <c r="D10" t="s">
-        <v>316</v>
-      </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1963,24 +2618,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>217</v>
       </c>
-      <c r="D11" t="s">
-        <v>317</v>
-      </c>
       <c r="E11" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="F11" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1989,24 +2644,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" t="s">
         <v>118</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>218</v>
       </c>
-      <c r="D12" t="s">
-        <v>318</v>
-      </c>
       <c r="E12" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="F12" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2015,24 +2670,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>219</v>
       </c>
-      <c r="D13" t="s">
-        <v>319</v>
-      </c>
       <c r="E13" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="F13" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2041,50 +2696,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>220</v>
       </c>
-      <c r="D14" t="s">
-        <v>320</v>
-      </c>
       <c r="E14" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="F14" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" t="s">
         <v>121</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>221</v>
       </c>
-      <c r="D15" t="s">
-        <v>321</v>
-      </c>
       <c r="E15" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2093,24 +2751,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>222</v>
       </c>
-      <c r="D16" t="s">
-        <v>322</v>
-      </c>
       <c r="E16" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2119,50 +2777,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
       <c r="D17" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="E17" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="F17" t="s">
-        <v>418</v>
+        <v>317</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>224</v>
       </c>
-      <c r="D18" t="s">
-        <v>324</v>
-      </c>
       <c r="E18" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="F18" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2171,50 +2829,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
+        <v>345</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>225</v>
       </c>
-      <c r="D19" t="s">
-        <v>325</v>
-      </c>
       <c r="E19" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="F19" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>226</v>
       </c>
-      <c r="D20" t="s">
-        <v>326</v>
-      </c>
       <c r="E20" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="F20" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2223,50 +2881,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>227</v>
       </c>
-      <c r="D21" t="s">
-        <v>327</v>
-      </c>
       <c r="E21" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>228</v>
       </c>
-      <c r="D22" t="s">
-        <v>328</v>
-      </c>
       <c r="E22" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="F22" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2275,76 +2936,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
       <c r="D23" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E23" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="F23" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
       <c r="D24" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="F24" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
       <c r="D25" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="E25" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="F25" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2353,24 +3014,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
       <c r="D26" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="E26" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="F26" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2379,24 +3040,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>353</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
       <c r="D27" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="F27" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2405,24 +3066,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
       <c r="D28" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="F28" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2431,24 +3092,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
+        <v>355</v>
+      </c>
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
       <c r="D29" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="E29" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="F29" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2457,24 +3118,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
+        <v>356</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
-        <v>236</v>
-      </c>
       <c r="D30" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="E30" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="F30" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2483,76 +3144,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
-        <v>237</v>
-      </c>
       <c r="D31" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="E31" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="F31" t="s">
-        <v>419</v>
+        <v>317</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
-        <v>238</v>
-      </c>
       <c r="D32" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E32" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="F32" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
       <c r="D33" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="E33" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="F33" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2561,50 +3225,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
+        <v>360</v>
+      </c>
+      <c r="C34" t="s">
         <v>140</v>
       </c>
-      <c r="C34" t="s">
-        <v>240</v>
-      </c>
       <c r="D34" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="E34" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="F34" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
+        <v>361</v>
+      </c>
+      <c r="C35" t="s">
         <v>141</v>
       </c>
-      <c r="C35" t="s">
-        <v>241</v>
-      </c>
       <c r="D35" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="E35" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="F35" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -2613,24 +3277,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
-        <v>242</v>
-      </c>
       <c r="D36" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="E36" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="F36" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -2639,24 +3303,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
+        <v>363</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
-        <v>243</v>
-      </c>
       <c r="D37" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="E37" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="F37" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -2665,50 +3329,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
+        <v>364</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
-        <v>244</v>
-      </c>
       <c r="D38" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E38" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="F38" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
+        <v>365</v>
+      </c>
+      <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
       <c r="D39" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="E39" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F39" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -2717,24 +3381,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>366</v>
+      </c>
+      <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="C40" t="s">
-        <v>246</v>
-      </c>
       <c r="D40" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="E40" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="F40" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -2743,50 +3407,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
+        <v>367</v>
+      </c>
+      <c r="C41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
-        <v>247</v>
-      </c>
       <c r="D41" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E41" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F41" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>248</v>
-      </c>
       <c r="D42" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="E42" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="F42" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -2795,50 +3459,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
+        <v>369</v>
+      </c>
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-      <c r="C43" t="s">
-        <v>249</v>
-      </c>
       <c r="D43" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F43" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
+        <v>370</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
-        <v>250</v>
-      </c>
       <c r="D44" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="E44" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="F44" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -2847,24 +3514,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
-        <v>251</v>
-      </c>
       <c r="D45" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="E45" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="F45" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -2873,24 +3540,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
+        <v>372</v>
+      </c>
+      <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
-        <v>252</v>
-      </c>
       <c r="D46" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="E46" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="F46" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -2899,50 +3566,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
-        <v>253</v>
-      </c>
       <c r="D47" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E47" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="F47" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I47" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
+        <v>374</v>
+      </c>
+      <c r="C48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
-        <v>254</v>
-      </c>
       <c r="D48" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="E48" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="F48" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -2951,24 +3621,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" t="s">
         <v>155</v>
       </c>
-      <c r="C49" t="s">
-        <v>255</v>
-      </c>
       <c r="D49" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="F49" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -2977,24 +3647,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
+        <v>376</v>
+      </c>
+      <c r="C50" t="s">
         <v>156</v>
       </c>
-      <c r="C50" t="s">
-        <v>256</v>
-      </c>
       <c r="D50" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="E50" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="F50" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3003,50 +3673,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="C51" t="s">
-        <v>257</v>
-      </c>
       <c r="D51" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E51" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="F51" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
+        <v>378</v>
+      </c>
+      <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
-        <v>258</v>
-      </c>
       <c r="D52" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E52" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F52" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -3055,50 +3725,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
+        <v>379</v>
+      </c>
+      <c r="C53" t="s">
         <v>159</v>
       </c>
-      <c r="C53" t="s">
-        <v>259</v>
-      </c>
       <c r="D53" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="E53" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="F53" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I53" t="s">
+        <v>323</v>
+      </c>
+      <c r="J53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
+        <v>380</v>
+      </c>
+      <c r="C54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
-        <v>260</v>
-      </c>
       <c r="D54" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="E54" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="F54" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -3107,24 +3783,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
+        <v>381</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
-        <v>261</v>
-      </c>
       <c r="D55" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="E55" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="F55" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -3133,50 +3809,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
+        <v>382</v>
+      </c>
+      <c r="C56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" t="s">
-        <v>262</v>
-      </c>
       <c r="D56" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="E56" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I56" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
+        <v>384</v>
+      </c>
+      <c r="C57" t="s">
         <v>163</v>
       </c>
-      <c r="C57" t="s">
-        <v>263</v>
-      </c>
       <c r="D57" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="E57" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="F57" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3185,24 +3864,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
+        <v>385</v>
+      </c>
+      <c r="C58" t="s">
         <v>164</v>
       </c>
-      <c r="C58" t="s">
-        <v>264</v>
-      </c>
       <c r="D58" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="E58" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="F58" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -3211,24 +3890,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
+        <v>386</v>
+      </c>
+      <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="C59" t="s">
-        <v>265</v>
-      </c>
       <c r="D59" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="E59" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="F59" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3237,24 +3916,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
+        <v>387</v>
+      </c>
+      <c r="C60" t="s">
         <v>166</v>
       </c>
-      <c r="C60" t="s">
-        <v>266</v>
-      </c>
       <c r="D60" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="E60" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="F60" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3263,24 +3942,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
+        <v>388</v>
+      </c>
+      <c r="C61" t="s">
         <v>167</v>
       </c>
-      <c r="C61" t="s">
-        <v>267</v>
-      </c>
       <c r="D61" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="E61" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="F61" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -3289,24 +3968,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="C62" t="s">
-        <v>268</v>
-      </c>
       <c r="D62" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="E62" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="F62" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -3315,24 +3994,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
+        <v>390</v>
+      </c>
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="C63" t="s">
-        <v>269</v>
-      </c>
       <c r="D63" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="E63" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="F63" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3341,50 +4020,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
+        <v>391</v>
+      </c>
+      <c r="C64" t="s">
         <v>170</v>
       </c>
-      <c r="C64" t="s">
-        <v>270</v>
-      </c>
       <c r="D64" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E64" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="F64" t="s">
-        <v>421</v>
+        <v>317</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
+        <v>392</v>
+      </c>
+      <c r="C65" t="s">
         <v>171</v>
       </c>
-      <c r="C65" t="s">
-        <v>271</v>
-      </c>
       <c r="D65" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="E65" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="F65" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -3393,24 +4072,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
+        <v>393</v>
+      </c>
+      <c r="C66" t="s">
         <v>172</v>
       </c>
-      <c r="C66" t="s">
-        <v>272</v>
-      </c>
       <c r="D66" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="E66" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="F66" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -3419,24 +4098,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
+        <v>394</v>
+      </c>
+      <c r="C67" t="s">
         <v>173</v>
       </c>
-      <c r="C67" t="s">
-        <v>273</v>
-      </c>
       <c r="D67" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="E67" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="F67" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -3445,50 +4124,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
+        <v>395</v>
+      </c>
+      <c r="C68" t="s">
         <v>174</v>
       </c>
-      <c r="C68" t="s">
-        <v>274</v>
-      </c>
       <c r="D68" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E68" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="F68" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
+        <v>396</v>
+      </c>
+      <c r="C69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" t="s">
-        <v>275</v>
-      </c>
       <c r="D69" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="E69" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="F69" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3497,24 +4176,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
+        <v>397</v>
+      </c>
+      <c r="C70" t="s">
         <v>176</v>
       </c>
-      <c r="C70" t="s">
-        <v>276</v>
-      </c>
       <c r="D70" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="E70" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F70" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3523,50 +4202,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
+        <v>398</v>
+      </c>
+      <c r="C71" t="s">
         <v>177</v>
       </c>
-      <c r="C71" t="s">
-        <v>277</v>
-      </c>
       <c r="D71" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="E71" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="F71" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I71" t="s">
+        <v>323</v>
+      </c>
+      <c r="J71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
+        <v>399</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
       </c>
-      <c r="C72" t="s">
-        <v>278</v>
-      </c>
       <c r="D72" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="E72" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="F72" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3575,50 +4260,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
+        <v>400</v>
+      </c>
+      <c r="C73" t="s">
         <v>179</v>
       </c>
-      <c r="C73" t="s">
-        <v>279</v>
-      </c>
       <c r="D73" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="E73" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="F73" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I73" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
+        <v>402</v>
+      </c>
+      <c r="C74" t="s">
         <v>180</v>
       </c>
-      <c r="C74" t="s">
-        <v>280</v>
-      </c>
       <c r="D74" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="E74" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F74" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3627,50 +4315,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C75" t="s">
         <v>181</v>
       </c>
-      <c r="C75" t="s">
-        <v>281</v>
-      </c>
       <c r="D75" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E75" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="F75" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
+        <v>404</v>
+      </c>
+      <c r="C76" t="s">
         <v>182</v>
       </c>
-      <c r="C76" t="s">
-        <v>282</v>
-      </c>
       <c r="D76" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="E76" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="F76" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -3679,76 +4367,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
+        <v>405</v>
+      </c>
+      <c r="C77" t="s">
         <v>183</v>
       </c>
-      <c r="C77" t="s">
-        <v>283</v>
-      </c>
       <c r="D77" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="E77" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="F77" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
+        <v>406</v>
+      </c>
+      <c r="C78" t="s">
         <v>184</v>
       </c>
-      <c r="C78" t="s">
-        <v>284</v>
-      </c>
       <c r="D78" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="E78" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="F78" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I78" t="s">
+        <v>323</v>
+      </c>
+      <c r="J78" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
+        <v>408</v>
+      </c>
+      <c r="C79" t="s">
         <v>185</v>
       </c>
-      <c r="C79" t="s">
-        <v>285</v>
-      </c>
       <c r="D79" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="E79" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="F79" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
@@ -3757,24 +4451,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
+        <v>409</v>
+      </c>
+      <c r="C80" t="s">
         <v>186</v>
       </c>
-      <c r="C80" t="s">
-        <v>286</v>
-      </c>
       <c r="D80" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="E80" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="F80" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -3783,24 +4477,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
+        <v>410</v>
+      </c>
+      <c r="C81" t="s">
         <v>187</v>
       </c>
-      <c r="C81" t="s">
-        <v>287</v>
-      </c>
       <c r="D81" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="E81" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="F81" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -3809,50 +4503,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
+        <v>411</v>
+      </c>
+      <c r="C82" t="s">
         <v>188</v>
       </c>
-      <c r="C82" t="s">
-        <v>288</v>
-      </c>
       <c r="D82" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E82" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="F82" t="s">
-        <v>424</v>
+        <v>317</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
+        <v>412</v>
+      </c>
+      <c r="C83" t="s">
         <v>189</v>
       </c>
-      <c r="C83" t="s">
-        <v>289</v>
-      </c>
       <c r="D83" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="E83" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="F83" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -3861,24 +4555,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
+        <v>413</v>
+      </c>
+      <c r="C84" t="s">
         <v>190</v>
       </c>
-      <c r="C84" t="s">
-        <v>290</v>
-      </c>
       <c r="D84" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="E84" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="F84" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -3887,24 +4581,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
+        <v>414</v>
+      </c>
+      <c r="C85" t="s">
         <v>191</v>
       </c>
-      <c r="C85" t="s">
-        <v>291</v>
-      </c>
       <c r="D85" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="F85" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -3913,50 +4607,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
+        <v>415</v>
+      </c>
+      <c r="C86" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
-        <v>292</v>
-      </c>
       <c r="D86" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E86" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="F86" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
+        <v>416</v>
+      </c>
+      <c r="C87" t="s">
         <v>193</v>
       </c>
-      <c r="C87" t="s">
-        <v>293</v>
-      </c>
       <c r="D87" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="E87" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="F87" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -3965,50 +4659,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
+        <v>417</v>
+      </c>
+      <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="C88" t="s">
-        <v>294</v>
-      </c>
       <c r="D88" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E88" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="F88" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
+        <v>418</v>
+      </c>
+      <c r="C89" t="s">
         <v>195</v>
       </c>
-      <c r="C89" t="s">
-        <v>295</v>
-      </c>
       <c r="D89" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="E89" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="F89" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4017,24 +4711,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
+        <v>419</v>
+      </c>
+      <c r="C90" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
-        <v>296</v>
-      </c>
       <c r="D90" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="E90" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="F90" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4043,24 +4737,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
+        <v>420</v>
+      </c>
+      <c r="C91" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
-        <v>297</v>
-      </c>
       <c r="D91" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="E91" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="F91" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -4069,24 +4763,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
+        <v>421</v>
+      </c>
+      <c r="C92" t="s">
         <v>198</v>
       </c>
-      <c r="C92" t="s">
-        <v>298</v>
-      </c>
       <c r="D92" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="E92" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="F92" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -4095,24 +4789,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
+        <v>422</v>
+      </c>
+      <c r="C93" t="s">
         <v>199</v>
       </c>
-      <c r="C93" t="s">
-        <v>299</v>
-      </c>
       <c r="D93" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="E93" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="F93" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -4121,24 +4815,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
+        <v>423</v>
+      </c>
+      <c r="C94" t="s">
         <v>200</v>
       </c>
-      <c r="C94" t="s">
-        <v>300</v>
-      </c>
       <c r="D94" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="E94" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="F94" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -4147,24 +4841,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
+        <v>424</v>
+      </c>
+      <c r="C95" t="s">
         <v>201</v>
       </c>
-      <c r="C95" t="s">
-        <v>301</v>
-      </c>
       <c r="D95" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="E95" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="F95" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -4173,50 +4867,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
+        <v>425</v>
+      </c>
+      <c r="C96" t="s">
         <v>202</v>
       </c>
-      <c r="C96" t="s">
-        <v>302</v>
-      </c>
       <c r="D96" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="E96" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="F96" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I96" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
+        <v>426</v>
+      </c>
+      <c r="C97" t="s">
         <v>203</v>
       </c>
-      <c r="C97" t="s">
-        <v>303</v>
-      </c>
       <c r="D97" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="E97" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="F97" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -4225,24 +4922,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
+        <v>427</v>
+      </c>
+      <c r="C98" t="s">
         <v>204</v>
       </c>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
       <c r="D98" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="E98" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="F98" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -4251,50 +4948,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
+        <v>428</v>
+      </c>
+      <c r="C99" t="s">
         <v>205</v>
       </c>
-      <c r="C99" t="s">
-        <v>305</v>
-      </c>
       <c r="D99" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E99" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="F99" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I99" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
+        <v>429</v>
+      </c>
+      <c r="C100" t="s">
         <v>206</v>
       </c>
-      <c r="C100" t="s">
-        <v>306</v>
-      </c>
       <c r="D100" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="E100" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="F100" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -4303,24 +5003,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
+        <v>430</v>
+      </c>
+      <c r="C101" t="s">
         <v>207</v>
       </c>
-      <c r="C101" t="s">
-        <v>307</v>
-      </c>
       <c r="D101" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="E101" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="F101" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
